--- a/excel/collective/zestawy_dla_uczniow/zestaw_015.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_015.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t>ZESTAW ZADAŃ NR 15 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Szymon Nowak</t>
-  </si>
-  <si>
-    <t>Mikołaj Wojciechowski</t>
-  </si>
-  <si>
-    <t>Julia Król</t>
-  </si>
-  <si>
-    <t>Anna Olszewska</t>
-  </si>
-  <si>
-    <t>Zuzanna Olszewska</t>
+    <t>Julia Borkowska</t>
+  </si>
+  <si>
+    <t>Hanna Wójcik</t>
+  </si>
+  <si>
+    <t>Filip Kozłowski</t>
+  </si>
+  <si>
+    <t>Adam Kozłowski</t>
+  </si>
+  <si>
+    <t>Hanna Lis</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>2,30</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>3,90</t>
+  </si>
+  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>14,50</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>2,00</t>
+    <t>13,10</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>3,80</t>
   </si>
   <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,20</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,60</t>
+    <t>1,10</t>
   </si>
   <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>6,40</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>4,80</t>
+    <t>4,60</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>15,71</t>
+    <t>22,37</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>26,48</t>
+    <t>7,70</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>14,94</t>
+    <t>3,32</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>14,49</t>
+    <t>16,50</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>19,85</t>
+    <t>18,89</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>16,75</t>
-  </si>
-  <si>
-    <t>30,87</t>
-  </si>
-  <si>
-    <t>11,81</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>30,02</t>
+    <t>22,43</t>
+  </si>
+  <si>
+    <t>22,08</t>
+  </si>
+  <si>
+    <t>2,16</t>
+  </si>
+  <si>
+    <t>11,14</t>
+  </si>
+  <si>
+    <t>5,86</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>19,37</t>
-  </si>
-  <si>
-    <t>30,54</t>
-  </si>
-  <si>
-    <t>13,92</t>
-  </si>
-  <si>
-    <t>11,35</t>
-  </si>
-  <si>
-    <t>6,22</t>
+    <t>10,43</t>
+  </si>
+  <si>
+    <t>25,25</t>
+  </si>
+  <si>
+    <t>16,06</t>
+  </si>
+  <si>
+    <t>8,58</t>
+  </si>
+  <si>
+    <t>3,06</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,34 +340,46 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Szymański</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Kubiak</t>
   </si>
   <si>
     <t>Natalia</t>
   </si>
   <si>
-    <t>Rogalska</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Maciejewska</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Nowak</t>
+    <t>Zawadzka</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -403,118 +415,121 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Jakub Kwiatkowski</t>
-  </si>
-  <si>
-    <t>08.09.1998</t>
-  </si>
-  <si>
-    <t>8 772,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kozłowski</t>
-  </si>
-  <si>
-    <t>05.07.2000</t>
-  </si>
-  <si>
-    <t>3 792,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Jankowski</t>
-  </si>
-  <si>
-    <t>03.12.1990</t>
-  </si>
-  <si>
-    <t>9 847,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Piekarska</t>
-  </si>
-  <si>
-    <t>24.06.1997</t>
-  </si>
-  <si>
-    <t>8 412,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Wojciechowski</t>
-  </si>
-  <si>
-    <t>03.10.1986</t>
-  </si>
-  <si>
-    <t>9 840,00 zł</t>
-  </si>
-  <si>
-    <t>27.08.1996</t>
-  </si>
-  <si>
-    <t>6 544,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Zieliński</t>
-  </si>
-  <si>
-    <t>18.04.1976</t>
-  </si>
-  <si>
-    <t>8 226,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>06.01.1981</t>
-  </si>
-  <si>
-    <t>13 264,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Jankowski</t>
-  </si>
-  <si>
-    <t>06.12.1979</t>
-  </si>
-  <si>
-    <t>3 773,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Kowalski</t>
-  </si>
-  <si>
-    <t>05.02.1999</t>
-  </si>
-  <si>
-    <t>4 607,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Dąbrowski</t>
-  </si>
-  <si>
-    <t>23.09.2003</t>
-  </si>
-  <si>
-    <t>10 508,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Lewandowski</t>
-  </si>
-  <si>
-    <t>27.10.1994</t>
-  </si>
-  <si>
-    <t>7 780,00 zł</t>
-  </si>
-  <si>
-    <t>Aleksander Szymański</t>
-  </si>
-  <si>
-    <t>19.04.1984</t>
-  </si>
-  <si>
-    <t>7 753,00 zł</t>
+    <t>Zuzanna Urbaniak</t>
+  </si>
+  <si>
+    <t>22.08.1988</t>
+  </si>
+  <si>
+    <t>11 893,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Wójcik</t>
+  </si>
+  <si>
+    <t>08.11.1988</t>
+  </si>
+  <si>
+    <t>8 338,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Kaźmierczak</t>
+  </si>
+  <si>
+    <t>27.08.2001</t>
+  </si>
+  <si>
+    <t>8 817,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Maciejewska</t>
+  </si>
+  <si>
+    <t>27.07.1977</t>
+  </si>
+  <si>
+    <t>6 373,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Zawadzka</t>
+  </si>
+  <si>
+    <t>27.12.1981</t>
+  </si>
+  <si>
+    <t>7 365,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Sadowska</t>
+  </si>
+  <si>
+    <t>08.08.2002</t>
+  </si>
+  <si>
+    <t>11 899,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Krawczyk</t>
+  </si>
+  <si>
+    <t>17.08.1981</t>
+  </si>
+  <si>
+    <t>7 634,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Wójcik</t>
+  </si>
+  <si>
+    <t>20.07.2004</t>
+  </si>
+  <si>
+    <t>9 426,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Szymański</t>
+  </si>
+  <si>
+    <t>05.12.1977</t>
+  </si>
+  <si>
+    <t>7 523,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Dąbrowski</t>
+  </si>
+  <si>
+    <t>03.08.1998</t>
+  </si>
+  <si>
+    <t>4 950,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Mazur</t>
+  </si>
+  <si>
+    <t>23.02.2000</t>
+  </si>
+  <si>
+    <t>5 251,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kamiński</t>
+  </si>
+  <si>
+    <t>06.09.1980</t>
+  </si>
+  <si>
+    <t>11 501,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Sadowska</t>
+  </si>
+  <si>
+    <t>03.09.1983</t>
+  </si>
+  <si>
+    <t>7 322,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -586,301 +601,337 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>623,00 zł</t>
+  </si>
+  <si>
+    <t>704,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>902,00 zł</t>
+  </si>
+  <si>
+    <t>1 118,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 423,00 zł</t>
+  </si>
+  <si>
+    <t>1 679,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 089,00 zł</t>
+  </si>
+  <si>
+    <t>1 220,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>836,00 zł</t>
+  </si>
+  <si>
+    <t>1 170,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>553,00 zł</t>
+  </si>
+  <si>
+    <t>653,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 297,00 zł</t>
-  </si>
-  <si>
-    <t>1 647,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
+    <t>1 444,00 zł</t>
+  </si>
+  <si>
+    <t>1 834,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 350,00 zł</t>
+  </si>
+  <si>
+    <t>1 769,00 zł</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 361,00 zł</t>
+  </si>
+  <si>
+    <t>1 851,00 zł</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>1 439,00 zł</t>
+  </si>
+  <si>
+    <t>1 842,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>1 137,00 zł</t>
+  </si>
+  <si>
+    <t>1 296,00 zł</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 175,00 zł</t>
+  </si>
+  <si>
+    <t>1 504,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 376,00 zł</t>
+  </si>
+  <si>
+    <t>1 527,00 zł</t>
+  </si>
+  <si>
+    <t>1 061,00 zł</t>
+  </si>
+  <si>
+    <t>1 454,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 271,00 zł</t>
+  </si>
+  <si>
+    <t>1 563,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 270,00 zł</t>
+  </si>
+  <si>
+    <t>1 600,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>797,00 zł</t>
-  </si>
-  <si>
-    <t>877,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>557,00 zł</t>
-  </si>
-  <si>
-    <t>707,00 zł</t>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>1 084,00 zł</t>
+  </si>
+  <si>
+    <t>1 214,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>845,00 zł</t>
+  </si>
+  <si>
+    <t>1 065,00 zł</t>
+  </si>
+  <si>
+    <t>1 248,00 zł</t>
+  </si>
+  <si>
+    <t>1 697,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>521,00 zł</t>
+  </si>
+  <si>
+    <t>604,00 zł</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>920,00 zł</t>
+  </si>
+  <si>
+    <t>1 233,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>1 028,00 zł</t>
+  </si>
+  <si>
+    <t>1 151,00 zł</t>
+  </si>
+  <si>
+    <t>1 367,00 zł</t>
+  </si>
+  <si>
+    <t>1 845,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>1 461,00 zł</t>
+  </si>
+  <si>
+    <t>1 753,00 zł</t>
+  </si>
+  <si>
+    <t>525,00 zł</t>
+  </si>
+  <si>
+    <t>635,00 zł</t>
+  </si>
+  <si>
+    <t>1 335,00 zł</t>
+  </si>
+  <si>
+    <t>1 869,00 zł</t>
   </si>
   <si>
     <t>Anna Nowak</t>
   </si>
   <si>
+    <t>1 154,00 zł</t>
+  </si>
+  <si>
+    <t>1 396,00 zł</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>1 386,00 zł</t>
+  </si>
+  <si>
+    <t>1 843,00 zł</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 343,00 zł</t>
+  </si>
+  <si>
+    <t>1 558,00 zł</t>
+  </si>
+  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 349,00 zł</t>
-  </si>
-  <si>
-    <t>1 578,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 269,00 zł</t>
-  </si>
-  <si>
-    <t>1 713,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>958,00 zł</t>
-  </si>
-  <si>
-    <t>1 265,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 342,00 zł</t>
-  </si>
-  <si>
-    <t>1 865,00 zł</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 543,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 015,00 zł</t>
-  </si>
-  <si>
-    <t>1 320,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>691,00 zł</t>
-  </si>
-  <si>
-    <t>933,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 241,00 zł</t>
-  </si>
-  <si>
-    <t>1 663,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 388,00 zł</t>
-  </si>
-  <si>
-    <t>1 679,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>1 248,00 zł</t>
-  </si>
-  <si>
-    <t>1 710,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>1 322,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>1 570,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 324,00 zł</t>
-  </si>
-  <si>
-    <t>1 801,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>1 239,00 zł</t>
-  </si>
-  <si>
-    <t>1 697,00 zł</t>
-  </si>
-  <si>
-    <t>1 202,00 zł</t>
-  </si>
-  <si>
-    <t>1 587,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 125,00 zł</t>
-  </si>
-  <si>
-    <t>1 575,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>1 336,00 zł</t>
-  </si>
-  <si>
-    <t>1 617,00 zł</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 290,00 zł</t>
-  </si>
-  <si>
-    <t>1 483,00 zł</t>
-  </si>
-  <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 296,00 zł</t>
-  </si>
-  <si>
-    <t>1 633,00 zł</t>
-  </si>
-  <si>
-    <t>1 493,00 zł</t>
-  </si>
-  <si>
-    <t>2 060,00 zł</t>
-  </si>
-  <si>
-    <t>1 224,00 zł</t>
-  </si>
-  <si>
-    <t>1 603,00 zł</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 363,00 zł</t>
-  </si>
-  <si>
-    <t>1 527,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 215,00 zł</t>
-  </si>
-  <si>
-    <t>1 531,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>751,00 zł</t>
-  </si>
-  <si>
-    <t>954,00 zł</t>
+    <t>670,00 zł</t>
+  </si>
+  <si>
+    <t>838,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1437,19 +1488,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
         <v>6</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1458,7 +1509,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -1470,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1479,19 +1530,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
       </c>
       <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
         <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1500,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
         <v>3</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
       </c>
       <c r="D20" s="3">
         <v>2</v>
       </c>
       <c r="E20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1521,16 +1572,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
         <v>4</v>
-      </c>
-      <c r="C21" s="3">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
@@ -1542,19 +1593,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
         <v>4</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>6</v>
-      </c>
-      <c r="D22" s="3">
-        <v>6</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1566,16 +1617,16 @@
         <v>5</v>
       </c>
       <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
         <v>2</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>3</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1584,16 +1635,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
       </c>
       <c r="E24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
         <v>6</v>
@@ -1605,19 +1656,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
         <v>6</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>4</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1626,19 +1677,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
         <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3">
-        <v>4</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1647,7 +1698,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -1656,10 +1707,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1668,19 +1719,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
         <v>2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1802,7 +1853,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1817,7 +1868,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1832,7 +1883,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1847,7 +1898,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1862,7 +1913,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1877,7 +1928,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1994,7 +2045,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2006,7 +2057,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2018,7 +2069,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2030,7 +2081,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2042,7 +2093,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2090,7 +2141,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2102,7 +2153,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2114,7 +2165,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2126,7 +2177,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2138,7 +2189,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2186,7 +2237,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2198,7 +2249,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2210,7 +2261,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2222,7 +2273,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2234,7 +2285,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2268,10 +2319,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A21" sqref="A21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2377,19 +2428,19 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
       <c r="H12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="3">
         <v>5</v>
@@ -2409,25 +2460,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3">
         <v>4</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3">
         <v>3</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>6</v>
-      </c>
-      <c r="J13" s="3">
-        <v>5</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2441,25 +2492,25 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
         <v>6</v>
       </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3</v>
-      </c>
       <c r="J14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2476,22 +2527,22 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6</v>
       </c>
       <c r="H15" s="3">
         <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2499,25 +2550,25 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <v>5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>6</v>
-      </c>
-      <c r="H16" s="3">
-        <v>4</v>
       </c>
       <c r="I16" s="3">
         <v>5</v>
@@ -2529,42 +2580,138 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="C18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2592,7 +2739,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2602,210 +2749,210 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="13" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2823,10 +2970,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:B50"/>
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2842,7 +2989,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2852,75 +2999,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2928,22 +3075,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2951,22 +3098,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2974,22 +3121,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2997,22 +3144,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3020,22 +3167,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3043,22 +3190,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3066,22 +3213,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3089,22 +3236,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3112,22 +3259,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3135,22 +3282,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3158,22 +3305,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3181,22 +3328,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3204,22 +3351,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3227,22 +3374,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3250,22 +3397,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3273,22 +3420,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3296,22 +3443,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3319,22 +3466,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3342,22 +3489,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3365,22 +3512,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3388,22 +3535,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3411,22 +3558,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3434,22 +3581,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3457,22 +3604,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3480,22 +3627,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3503,19 +3650,19 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>284</v>
@@ -3526,67 +3673,136 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G42" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>199</v>
       </c>
+      <c r="C43" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>287</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>288</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>169</v>
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>289</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>169</v>
+      <c r="A48" s="13" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>306</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>307</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_015.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_015.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>ZESTAW ZADAŃ NR 15 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 15 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>2,30</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>3,90</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>13,10</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>3,80</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,10</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>4,60</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>22,37</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>7,70</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>3,32</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>16,50</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>18,89</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>22,43</t>
-  </si>
-  <si>
-    <t>22,08</t>
-  </si>
-  <si>
-    <t>2,16</t>
-  </si>
-  <si>
-    <t>11,14</t>
-  </si>
-  <si>
-    <t>5,86</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>10,43</t>
-  </si>
-  <si>
-    <t>25,25</t>
-  </si>
-  <si>
-    <t>16,06</t>
-  </si>
-  <si>
-    <t>8,58</t>
-  </si>
-  <si>
-    <t>3,06</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -421,117 +343,78 @@
     <t>22.08.1988</t>
   </si>
   <si>
-    <t>11 893,00 zł</t>
-  </si>
-  <si>
     <t>Maja Wójcik</t>
   </si>
   <si>
     <t>08.11.1988</t>
   </si>
   <si>
-    <t>8 338,00 zł</t>
-  </si>
-  <si>
     <t>Maja Kaźmierczak</t>
   </si>
   <si>
     <t>27.08.2001</t>
   </si>
   <si>
-    <t>8 817,00 zł</t>
-  </si>
-  <si>
     <t>Maja Maciejewska</t>
   </si>
   <si>
     <t>27.07.1977</t>
   </si>
   <si>
-    <t>6 373,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Zawadzka</t>
   </si>
   <si>
     <t>27.12.1981</t>
   </si>
   <si>
-    <t>7 365,00 zł</t>
-  </si>
-  <si>
     <t>Anna Sadowska</t>
   </si>
   <si>
     <t>08.08.2002</t>
   </si>
   <si>
-    <t>11 899,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Krawczyk</t>
   </si>
   <si>
     <t>17.08.1981</t>
   </si>
   <si>
-    <t>7 634,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Wójcik</t>
   </si>
   <si>
     <t>20.07.2004</t>
   </si>
   <si>
-    <t>9 426,00 zł</t>
-  </si>
-  <si>
     <t>Adam Szymański</t>
   </si>
   <si>
     <t>05.12.1977</t>
   </si>
   <si>
-    <t>7 523,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Dąbrowski</t>
   </si>
   <si>
     <t>03.08.1998</t>
   </si>
   <si>
-    <t>4 950,00 zł</t>
-  </si>
-  <si>
     <t>Adam Mazur</t>
   </si>
   <si>
     <t>23.02.2000</t>
   </si>
   <si>
-    <t>5 251,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kamiński</t>
   </si>
   <si>
     <t>06.09.1980</t>
   </si>
   <si>
-    <t>11 501,00 zł</t>
-  </si>
-  <si>
     <t>Lena Sadowska</t>
   </si>
   <si>
     <t>03.09.1983</t>
   </si>
   <si>
-    <t>7 322,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -544,9 +427,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -607,12 +487,6 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>623,00 zł</t>
-  </si>
-  <si>
-    <t>704,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -625,12 +499,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>902,00 zł</t>
-  </si>
-  <si>
-    <t>1 118,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -643,12 +511,6 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 423,00 zł</t>
-  </si>
-  <si>
-    <t>1 679,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -661,12 +523,6 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 089,00 zł</t>
-  </si>
-  <si>
-    <t>1 220,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -676,12 +532,6 @@
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>836,00 zł</t>
-  </si>
-  <si>
-    <t>1 170,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -691,111 +541,51 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>553,00 zł</t>
-  </si>
-  <si>
-    <t>653,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 444,00 zł</t>
-  </si>
-  <si>
-    <t>1 834,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 350,00 zł</t>
-  </si>
-  <si>
-    <t>1 769,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 361,00 zł</t>
-  </si>
-  <si>
-    <t>1 851,00 zł</t>
-  </si>
-  <si>
     <t>łódzkie</t>
   </si>
   <si>
-    <t>1 439,00 zł</t>
-  </si>
-  <si>
-    <t>1 842,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>1 137,00 zł</t>
-  </si>
-  <si>
-    <t>1 296,00 zł</t>
-  </si>
-  <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 175,00 zł</t>
-  </si>
-  <si>
-    <t>1 504,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 376,00 zł</t>
-  </si>
-  <si>
-    <t>1 527,00 zł</t>
-  </si>
-  <si>
-    <t>1 061,00 zł</t>
-  </si>
-  <si>
-    <t>1 454,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 271,00 zł</t>
-  </si>
-  <si>
-    <t>1 563,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -805,12 +595,6 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 270,00 zł</t>
-  </si>
-  <si>
-    <t>1 600,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -820,118 +604,34 @@
     <t>luty</t>
   </si>
   <si>
-    <t>1 084,00 zł</t>
-  </si>
-  <si>
-    <t>1 214,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
-    <t>845,00 zł</t>
-  </si>
-  <si>
-    <t>1 065,00 zł</t>
-  </si>
-  <si>
-    <t>1 248,00 zł</t>
-  </si>
-  <si>
-    <t>1 697,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>521,00 zł</t>
-  </si>
-  <si>
-    <t>604,00 zł</t>
-  </si>
-  <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>920,00 zł</t>
-  </si>
-  <si>
-    <t>1 233,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
-    <t>1 028,00 zł</t>
-  </si>
-  <si>
-    <t>1 151,00 zł</t>
-  </si>
-  <si>
-    <t>1 367,00 zł</t>
-  </si>
-  <si>
-    <t>1 845,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
-    <t>1 461,00 zł</t>
-  </si>
-  <si>
-    <t>1 753,00 zł</t>
-  </si>
-  <si>
-    <t>525,00 zł</t>
-  </si>
-  <si>
-    <t>635,00 zł</t>
-  </si>
-  <si>
-    <t>1 335,00 zł</t>
-  </si>
-  <si>
-    <t>1 869,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
-    <t>1 154,00 zł</t>
-  </si>
-  <si>
-    <t>1 396,00 zł</t>
-  </si>
-  <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 386,00 zł</t>
-  </si>
-  <si>
-    <t>1 843,00 zł</t>
-  </si>
-  <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 343,00 zł</t>
-  </si>
-  <si>
-    <t>1 558,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
     <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>670,00 zł</t>
-  </si>
-  <si>
-    <t>838,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -953,7 +653,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1010,14 +712,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1028,8 +730,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1060,30 +762,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,7 +1089,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1461,25 +1164,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1502,7 +1205,7 @@
       <c r="F17" s="3">
         <v>6</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1523,7 +1226,7 @@
       <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1544,7 +1247,7 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1565,7 +1268,7 @@
       <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1586,7 +1289,7 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1607,7 +1310,7 @@
       <c r="F22" s="3">
         <v>6</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1628,7 +1331,7 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1649,7 +1352,7 @@
       <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1670,7 +1373,7 @@
       <c r="F25" s="3">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1691,7 +1394,7 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1712,7 +1415,7 @@
       <c r="F27" s="3">
         <v>5</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1733,27 +1436,17 @@
       <c r="F28" s="3">
         <v>6</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1787,7 +1480,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1807,7 +1500,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1817,29 +1510,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1847,99 +1540,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2.3</v>
       </c>
       <c r="D13" s="3">
         <v>9</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3.9</v>
       </c>
       <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13.1</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3.8</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.1</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4.6</v>
       </c>
       <c r="D18" s="3">
         <v>7</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1972,7 +1665,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1997,113 +1690,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>22.37</v>
       </c>
       <c r="C15" s="3">
         <v>30</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>7.7</v>
       </c>
       <c r="C16" s="3">
         <v>33</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3.32</v>
       </c>
       <c r="C17" s="3">
         <v>48</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>16.5</v>
       </c>
       <c r="C18" s="3">
         <v>19</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>18.89</v>
       </c>
       <c r="C19" s="3">
         <v>31</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2112,94 +1805,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>22.43</v>
       </c>
       <c r="C24" s="3">
         <v>42</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>22.079999999999998</v>
       </c>
       <c r="C25" s="3">
         <v>21</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2.16</v>
       </c>
       <c r="C26" s="3">
         <v>35</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>11.14</v>
       </c>
       <c r="C27" s="3">
         <v>31</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>5.86</v>
       </c>
       <c r="C28" s="3">
         <v>19</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2208,98 +1901,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>10.43</v>
       </c>
       <c r="C33" s="3">
         <v>28</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>25.25</v>
       </c>
       <c r="C34" s="3">
         <v>17</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>16.059999999999999</v>
       </c>
       <c r="C35" s="3">
         <v>38</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>8.58</v>
       </c>
       <c r="C36" s="3">
         <v>19</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3.06</v>
       </c>
       <c r="C37" s="3">
         <v>39</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2322,7 +2015,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2342,90 +2035,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
@@ -2448,16 +2141,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
@@ -2480,16 +2173,16 @@
       <c r="J13" s="3">
         <v>6</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
@@ -2512,16 +2205,16 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2544,16 +2237,16 @@
       <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -2576,16 +2269,16 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
@@ -2608,16 +2301,16 @@
       <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
@@ -2640,16 +2333,16 @@
       <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -2672,40 +2365,40 @@
       <c r="J19" s="3">
         <v>5</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2738,222 +2431,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>122</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>11893</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8338</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>8817</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6373</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="C15" s="7">
+        <v>7365</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11899</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7634</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
+      </c>
+      <c r="C18" s="7">
+        <v>9426</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7523</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4950</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5251</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
+      </c>
+      <c r="C22" s="7">
+        <v>11501</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7322</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>170</v>
+      <c r="A26" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2988,86 +2675,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>175</v>
+      <c r="A1" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>192</v>
+      <c r="A15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3075,22 +2762,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
+      </c>
+      <c r="D16" s="7">
+        <v>623</v>
+      </c>
+      <c r="E16" s="7">
+        <v>704</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3098,22 +2785,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
+      </c>
+      <c r="D17" s="7">
+        <v>902</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1118</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3121,22 +2808,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1423</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1679</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3144,22 +2831,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1089</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1220</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3167,22 +2854,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
+      </c>
+      <c r="D20" s="7">
+        <v>836</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1170</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3190,22 +2877,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
+      </c>
+      <c r="D21" s="7">
+        <v>553</v>
+      </c>
+      <c r="E21" s="7">
+        <v>653</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3213,22 +2900,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1444</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1834</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3236,22 +2923,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1350</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1769</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3259,22 +2946,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>236</v>
+        <v>178</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1361</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1851</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3282,22 +2969,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>239</v>
+        <v>154</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1439</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1842</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3305,22 +2992,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>243</v>
+        <v>178</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1137</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1296</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3328,22 +3015,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>247</v>
+        <v>183</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1175</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1504</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3351,22 +3038,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1376</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1527</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3374,22 +3061,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>253</v>
+        <v>154</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1061</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1454</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3397,22 +3084,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>257</v>
+        <v>187</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1271</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1563</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3420,22 +3107,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>262</v>
+        <v>190</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1270</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1600</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>264</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3443,22 +3130,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>267</v>
+        <v>162</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1084</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1214</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3466,22 +3153,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>270</v>
+        <v>174</v>
+      </c>
+      <c r="D33" s="7">
+        <v>845</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1065</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3489,22 +3176,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>272</v>
+        <v>172</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1248</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1697</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3512,22 +3199,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>275</v>
+        <v>178</v>
+      </c>
+      <c r="D35" s="7">
+        <v>521</v>
+      </c>
+      <c r="E35" s="7">
+        <v>604</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3535,22 +3222,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>278</v>
+        <v>196</v>
+      </c>
+      <c r="D36" s="7">
+        <v>920</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1233</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3558,22 +3245,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>281</v>
+        <v>162</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1028</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1151</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3581,22 +3268,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>283</v>
+        <v>178</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1367</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1845</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3604,22 +3291,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>286</v>
+        <v>174</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1461</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1753</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3627,22 +3314,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>288</v>
+        <v>178</v>
+      </c>
+      <c r="D40" s="7">
+        <v>525</v>
+      </c>
+      <c r="E40" s="7">
+        <v>635</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3650,22 +3337,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>290</v>
+        <v>185</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1335</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1869</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3673,22 +3360,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>293</v>
+        <v>183</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1154</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1396</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>264</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3696,22 +3383,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>296</v>
+        <v>200</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1386</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1843</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3719,22 +3406,22 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>299</v>
+        <v>201</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1343</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1558</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>300</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3742,68 +3429,58 @@
         <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>303</v>
+        <v>203</v>
+      </c>
+      <c r="D45" s="7">
+        <v>670</v>
+      </c>
+      <c r="E45" s="7">
+        <v>838</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
-        <v>170</v>
+      <c r="A48" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>304</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>305</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>306</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>307</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>308</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B53" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_015.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_015.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t>ZESTAW ZADAŃ NR 15 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Julia Borkowska</t>
-  </si>
-  <si>
-    <t>Hanna Wójcik</t>
-  </si>
-  <si>
-    <t>Filip Kozłowski</t>
-  </si>
-  <si>
-    <t>Adam Kozłowski</t>
-  </si>
-  <si>
-    <t>Hanna Lis</t>
+    <t>Anna Czarnecka</t>
+  </si>
+  <si>
+    <t>Antoni Kowalczyk</t>
+  </si>
+  <si>
+    <t>Aleksander Grabowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Górska</t>
+  </si>
+  <si>
+    <t>Szymon Krawczyk</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 15 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,13 +149,16 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
   </si>
   <si>
     <t>Zeszyt 60 kartek</t>
@@ -160,9 +167,6 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,49 +266,46 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Dąbrowski</t>
   </si>
   <si>
     <t>Filip</t>
   </si>
   <si>
-    <t>Szymański</t>
-  </si>
-  <si>
-    <t>Hanna</t>
+    <t>Krawczyk</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
   </si>
   <si>
     <t>Borkowska</t>
   </si>
   <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
-    <t>Natalia</t>
+    <t>Amelia</t>
   </si>
   <si>
     <t>Zawadzka</t>
   </si>
   <si>
-    <t>Lis</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
-  </si>
-  <si>
-    <t>Malinowska</t>
+    <t>Król</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -337,82 +341,43 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Zuzanna Urbaniak</t>
-  </si>
-  <si>
-    <t>22.08.1988</t>
-  </si>
-  <si>
-    <t>Maja Wójcik</t>
-  </si>
-  <si>
-    <t>08.11.1988</t>
-  </si>
-  <si>
-    <t>Maja Kaźmierczak</t>
-  </si>
-  <si>
-    <t>27.08.2001</t>
+    <t>Jan Kowalczyk</t>
+  </si>
+  <si>
+    <t>Kacper Zieliński</t>
+  </si>
+  <si>
+    <t>Wojciech Lewandowski</t>
+  </si>
+  <si>
+    <t>Natalia Górska</t>
+  </si>
+  <si>
+    <t>Emilia Olszewska</t>
   </si>
   <si>
     <t>Maja Maciejewska</t>
   </si>
   <si>
-    <t>27.07.1977</t>
-  </si>
-  <si>
-    <t>Amelia Zawadzka</t>
-  </si>
-  <si>
-    <t>27.12.1981</t>
-  </si>
-  <si>
-    <t>Anna Sadowska</t>
-  </si>
-  <si>
-    <t>08.08.2002</t>
-  </si>
-  <si>
-    <t>Szymon Krawczyk</t>
-  </si>
-  <si>
-    <t>17.08.1981</t>
-  </si>
-  <si>
-    <t>Antoni Wójcik</t>
-  </si>
-  <si>
-    <t>20.07.2004</t>
-  </si>
-  <si>
-    <t>Adam Szymański</t>
-  </si>
-  <si>
-    <t>05.12.1977</t>
-  </si>
-  <si>
-    <t>Kacper Dąbrowski</t>
-  </si>
-  <si>
-    <t>03.08.1998</t>
-  </si>
-  <si>
-    <t>Adam Mazur</t>
-  </si>
-  <si>
-    <t>23.02.2000</t>
-  </si>
-  <si>
-    <t>Aleksander Kamiński</t>
-  </si>
-  <si>
-    <t>06.09.1980</t>
-  </si>
-  <si>
-    <t>Lena Sadowska</t>
-  </si>
-  <si>
-    <t>03.09.1983</t>
+    <t>Natalia Rogalska</t>
+  </si>
+  <si>
+    <t>Julia Malinowska</t>
+  </si>
+  <si>
+    <t>Oliwia Sadowska</t>
+  </si>
+  <si>
+    <t>Wojciech Woźniak</t>
+  </si>
+  <si>
+    <t>Filip Kaczmarek</t>
+  </si>
+  <si>
+    <t>Szymon Zieliński</t>
+  </si>
+  <si>
+    <t>Oliwia Maciejewska</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -427,7 +392,67 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Jan Kaczmarek</t>
+  </si>
+  <si>
+    <t>Anna Sikorska</t>
+  </si>
+  <si>
+    <t>Adam Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Aleksander Piotrowski</t>
+  </si>
+  <si>
+    <t>Emilia Sikorska</t>
+  </si>
+  <si>
+    <t>Julia Olszewska</t>
+  </si>
+  <si>
+    <t>Amelia Borkowska</t>
+  </si>
+  <si>
+    <t>Jan Jankowski</t>
+  </si>
+  <si>
+    <t>Mikołaj Nowak</t>
+  </si>
+  <si>
+    <t>Adam Kaczmarek</t>
+  </si>
+  <si>
+    <t>Oliwia Górska</t>
+  </si>
+  <si>
+    <t>Kacper Mazur</t>
+  </si>
+  <si>
+    <t>Mikołaj Piotrowski</t>
+  </si>
+  <si>
+    <t>Emilia Sadowska</t>
+  </si>
+  <si>
+    <t>Mikołaj Krawczyk</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -481,157 +506,148 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
     <t>maj</t>
   </si>
   <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>marzec</t>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
     <t>opolskie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -703,7 +719,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,12 +742,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -762,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -773,13 +783,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1086,7 +1095,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1194,16 +1203,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
         <v>5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1212,7 +1221,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -1221,10 +1230,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1233,19 +1242,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1254,19 +1263,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>2</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>5</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1275,19 +1284,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4</v>
-      </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1296,19 +1305,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
         <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1317,19 +1326,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3">
         <v>5</v>
       </c>
-      <c r="C23" s="3">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1344,13 +1353,13 @@
         <v>5</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1359,19 +1368,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1386,10 +1395,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -1401,19 +1410,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3">
         <v>2</v>
       </c>
-      <c r="D27" s="3">
-        <v>5</v>
-      </c>
       <c r="E27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1422,19 +1431,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
         <v>2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3">
-        <v>6</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1447,6 +1456,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1480,7 +1495,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1500,7 +1515,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1510,29 +1525,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1540,99 +1555,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2.3</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.4</v>
       </c>
       <c r="D13" s="3">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3.9</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.5</v>
       </c>
       <c r="D14" s="3">
-        <v>9</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>13.1</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>3.8</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.5</v>
       </c>
       <c r="D16" s="3">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1.1</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3.7</v>
       </c>
       <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4.6</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.8</v>
       </c>
       <c r="D18" s="3">
-        <v>7</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1649,10 +1664,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1665,7 +1680,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1690,27 +1705,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1718,85 +1733,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>22.37</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>23.21</v>
       </c>
       <c r="C15" s="3">
-        <v>30</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>7.7</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3.74</v>
       </c>
       <c r="C16" s="3">
-        <v>33</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>3.32</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>21.8</v>
       </c>
       <c r="C17" s="3">
-        <v>48</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>16.5</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>28.38</v>
       </c>
       <c r="C18" s="3">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>18.89</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2.35</v>
       </c>
       <c r="C19" s="3">
-        <v>31</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1805,8 +1820,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1814,85 +1829,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>22.43</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>9.33</v>
       </c>
       <c r="C24" s="3">
-        <v>42</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>22.079999999999998</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>24.13</v>
       </c>
       <c r="C25" s="3">
-        <v>21</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>2.16</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>5.21</v>
       </c>
       <c r="C26" s="3">
-        <v>35</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>11.14</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>22.28</v>
       </c>
       <c r="C27" s="3">
-        <v>31</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>5.86</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>16.92</v>
       </c>
       <c r="C28" s="3">
-        <v>19</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1901,8 +1916,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1910,89 +1925,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>10.43</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>28.82</v>
       </c>
       <c r="C33" s="3">
-        <v>28</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>25.25</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>25.71</v>
       </c>
       <c r="C34" s="3">
-        <v>17</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>16.059999999999999</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>27.059999999999999</v>
       </c>
       <c r="C35" s="3">
-        <v>38</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>8.58</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>17.27</v>
       </c>
       <c r="C36" s="3">
-        <v>19</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>3.06</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>9.74</v>
       </c>
       <c r="C37" s="3">
-        <v>39</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2035,96 +2058,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>4</v>
@@ -2136,10 +2159,10 @@
         <v>3</v>
       </c>
       <c r="I12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2147,28 +2170,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J13" s="3">
         <v>6</v>
@@ -2179,25 +2202,25 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>6</v>
@@ -2211,31 +2234,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
         <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2243,31 +2266,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
       <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
         <v>4</v>
       </c>
-      <c r="F16" s="3">
+      <c r="H16" s="3">
         <v>4</v>
       </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>5</v>
-      </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2275,16 +2298,16 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -2293,13 +2316,13 @@
         <v>3</v>
       </c>
       <c r="H17" s="3">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
         <v>4</v>
       </c>
-      <c r="I17" s="3">
-        <v>3</v>
-      </c>
       <c r="J17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2307,31 +2330,31 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
         <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2339,38 +2362,38 @@
     <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
         <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
       <c r="G19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
       </c>
       <c r="I19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2386,7 +2409,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2431,216 +2454,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>96</v>
+      <c r="A1" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="7">
-        <v>11893</v>
+      <c r="B11" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C11" s="8">
+        <v>11097</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8338</v>
+      <c r="B12" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10976</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>8817</v>
+        <v>108</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8633</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6373</v>
+        <v>109</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C14" s="8">
+        <v>14143</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7">
-        <v>7365</v>
+        <v>110</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5157</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11899</v>
+        <v>111</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C16" s="8">
+        <v>8910</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7634</v>
+        <v>112</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6424</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="7">
-        <v>9426</v>
+        <v>113</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C18" s="8">
+        <v>6151</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="7">
-        <v>7523</v>
+        <v>114</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C19" s="8">
+        <v>7878</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4950</v>
+        <v>115</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C20" s="8">
+        <v>14912</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="7">
-        <v>5251</v>
+        <v>116</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C21" s="8">
+        <v>5930</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="7">
-        <v>11501</v>
+        <v>117</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2586</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="7">
-        <v>7322</v>
+        <v>118</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C23" s="8">
+        <v>7216</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="17" t="s">
-        <v>131</v>
+      <c r="A26" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2657,10 +2680,230 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A49" sqref="A49:B53"/>
+      <selection activeCell="A10" sqref="A10:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3">
+        <v>161</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3">
+        <v>182</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="3">
+        <v>144</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="3">
+        <v>130</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="3">
+        <v>107</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="3">
+        <v>196</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="3">
+        <v>165</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="3">
+        <v>186</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="3">
+        <v>185</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="3">
+        <v>172</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="3">
+        <v>149</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="3">
+        <v>157</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="3">
+        <v>151</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="3">
+        <v>147</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="3">
+        <v>173</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="3">
+        <v>168</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="3">
+        <v>121</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2675,86 +2918,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>135</v>
+      <c r="A1" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2762,22 +3005,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="7">
-        <v>623</v>
-      </c>
-      <c r="E16" s="7">
-        <v>704</v>
+        <v>162</v>
+      </c>
+      <c r="D16" s="8">
+        <v>500</v>
+      </c>
+      <c r="E16" s="8">
+        <v>575</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2785,22 +3028,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="7">
-        <v>902</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1118</v>
+        <v>165</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1187</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1318</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2808,22 +3051,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1423</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1679</v>
+        <v>169</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1408</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1816</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2831,22 +3074,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1220</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1415</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="7">
-        <v>1089</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1220</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2854,22 +3097,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="7">
-        <v>836</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1170</v>
+        <v>175</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1088</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1447</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2877,22 +3120,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="7">
-        <v>553</v>
-      </c>
-      <c r="E21" s="7">
-        <v>653</v>
+        <v>179</v>
+      </c>
+      <c r="D21" s="8">
+        <v>638</v>
+      </c>
+      <c r="E21" s="8">
+        <v>887</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2900,22 +3143,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1444</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1834</v>
+        <v>165</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1457</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1909</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2923,22 +3166,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1350</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1769</v>
+        <v>185</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1304</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1695</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2946,22 +3189,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1361</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1851</v>
+        <v>187</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1498</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1708</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2969,22 +3212,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1439</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1842</v>
+        <v>190</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1363</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1895</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2992,22 +3235,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1137</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1296</v>
+        <v>192</v>
+      </c>
+      <c r="D26" s="8">
+        <v>677</v>
+      </c>
+      <c r="E26" s="8">
+        <v>934</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3015,22 +3258,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1175</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1504</v>
+        <v>193</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1226</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1557</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3038,22 +3281,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1376</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1527</v>
+        <v>194</v>
+      </c>
+      <c r="D28" s="8">
+        <v>864</v>
+      </c>
+      <c r="E28" s="8">
+        <v>976</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3061,22 +3304,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1061</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1454</v>
+        <v>196</v>
+      </c>
+      <c r="D29" s="8">
+        <v>760</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1018</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3084,22 +3327,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1271</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1563</v>
+        <v>172</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1081</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1503</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3107,22 +3350,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1270</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1600</v>
+        <v>185</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1357</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1628</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3130,22 +3373,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1084</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1214</v>
+        <v>200</v>
+      </c>
+      <c r="D32" s="8">
+        <v>678</v>
+      </c>
+      <c r="E32" s="8">
+        <v>922</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3153,22 +3396,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="7">
-        <v>845</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1065</v>
+        <v>201</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1085</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1486</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3176,22 +3419,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1248</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1697</v>
+        <v>202</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1329</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1741</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3199,22 +3442,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="7">
-        <v>521</v>
-      </c>
-      <c r="E35" s="7">
-        <v>604</v>
+        <v>204</v>
+      </c>
+      <c r="D35" s="8">
+        <v>687</v>
+      </c>
+      <c r="E35" s="8">
+        <v>866</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3222,22 +3465,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="7">
-        <v>920</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1233</v>
+        <v>194</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1463</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1712</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3245,22 +3488,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1028</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1151</v>
+        <v>207</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1175</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1633</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3271,19 +3514,19 @@
         <v>161</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1367</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1845</v>
+        <v>201</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1143</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1337</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3294,19 +3537,19 @@
         <v>161</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1461</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1753</v>
+        <v>162</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1306</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1828</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3317,19 +3560,19 @@
         <v>168</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="7">
-        <v>525</v>
-      </c>
-      <c r="E40" s="7">
-        <v>635</v>
+        <v>172</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1170</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1498</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3337,150 +3580,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1335</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1869</v>
+        <v>192</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1001</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1241</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1154</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1396</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1386</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1843</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1343</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1558</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>202</v>
+      <c r="A44" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D45" s="7">
-        <v>670</v>
-      </c>
-      <c r="E45" s="7">
-        <v>838</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="A45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="17" t="s">
-        <v>131</v>
-      </c>
+      <c r="A48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>206</v>
-      </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>207</v>
-      </c>
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>208</v>
-      </c>
-      <c r="B53" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
